--- a/Finalize logic tree/Ford_F-150_Coolant leak.xlsx
+++ b/Finalize logic tree/Ford_F-150_Coolant leak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9667E92B-B60C-4DEF-8AB1-1B1AFEB2A4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF7B63-5ABD-4886-831B-834E8D4543DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{0010F2F5-E311-442F-BADF-ACFF5527FF1F}"/>
   </bookViews>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332819A6-CE2E-4E7A-9B77-B40EE555F313}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
